--- a/data/trans_dic/P20_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado la relación con sus convivientes</t>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 25,16</t>
+          <t>6,56; 35,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 15,93</t>
+          <t>3,06; 26,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 40,07</t>
+          <t>12,6; 38,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 21,61</t>
+          <t>3,77; 21,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 29,72</t>
+          <t>14,28; 32,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 16,41</t>
+          <t>4,87; 19,19</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 43,72</t>
+          <t>5,54; 53,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 40,58</t>
+          <t>2,19; 56,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 23,43</t>
+          <t>5,35; 23,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 20,47</t>
+          <t>1,86; 16,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 25,01</t>
+          <t>8,84; 32,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 27,71</t>
+          <t>4,39; 34,16</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,44</t>
+          <t>3,47; 20,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,34; 35,15</t>
+          <t>7,03; 25,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,49; 24,56</t>
+          <t>11,73; 26,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,72; 23,52</t>
+          <t>12,59; 27,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 17,64</t>
+          <t>9,8; 20,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 27,01</t>
+          <t>12,0; 23,39</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>16,56%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 20,7</t>
+          <t>6,18; 21,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 21,85</t>
+          <t>7,48; 23,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 18,35</t>
+          <t>6,55; 19,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 21,88</t>
+          <t>12,14; 27,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,07</t>
+          <t>7,9; 17,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 20,03</t>
+          <t>11,66; 22,62</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 16,4</t>
+          <t>3,24; 18,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 16,37</t>
+          <t>3,7; 22,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,47</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,5</t>
+          <t>4,95; 15,98</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 16,5</t>
+          <t>2,5; 21,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,82; 23,91</t>
+          <t>4,69; 26,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 15,08</t>
+          <t>0,0; 13,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 19,54</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,85</t>
+          <t>2,33; 13,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 18,58</t>
+          <t>3,43; 16,34</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>13,45%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,61</t>
+          <t>7,9; 19,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,76; 19,4</t>
+          <t>9,21; 22,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,03</t>
+          <t>9,84; 16,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,15</t>
+          <t>9,79; 16,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,42</t>
+          <t>10,0; 16,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,08</t>
+          <t>10,89; 18,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17173</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10882</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28381</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13686</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45554</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24567</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5648; 30953</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3279; 28126</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14812; 44957</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5056; 28291</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29091; 66909</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11740; 46244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28505</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33733</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16776</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12246</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45280</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45978</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7575; 72671</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3703; 95721</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7135; 30833</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3070; 27066</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23876; 87161</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14644; 114049</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12516</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24829</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39372</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48886</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51888</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73715</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4843; 28097</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11396; 41482</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25272; 57032</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33252; 71669</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34797; 71219</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51147; 99671</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20286</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25637</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22481</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41429</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>42767</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67066</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10101; 34459</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13957; 42984</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12524; 37739</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26506; 59646</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28033; 60956</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47245; 91607</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14701</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12857</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27558</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12632</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5094; 29074</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4297; 25879</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10503</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13555; 43728</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7252</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14147</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4534</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6051</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11787</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>20198</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2259; 19449</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5123; 28419</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14069</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18721</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4592; 25723</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8459; 40346</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>87871</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>123928</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111544</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>135155</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>199415</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>259083</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>59640; 147328</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>82112; 201072</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>85439; 145957</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>101344; 169018</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>162396; 261455</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>209888; 347601</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>